--- a/biology/Médecine/Victor_de_Rochas/Victor_de_Rochas.xlsx
+++ b/biology/Médecine/Victor_de_Rochas/Victor_de_Rochas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victor Henri de Rochas, né le 22 novembre 1830 à La Couarde-sur-Mer sur l'île de Ré[1] et mort le 18 février 1878 à Paris[2], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Henri de Rochas, né le 22 novembre 1830 à La Couarde-sur-Mer sur l'île de Ré et mort le 18 février 1878 à Paris, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de chirurgien, il devient chirurgien de marine dès 1852[3], Victor de Rochas part le 24 juillet 1856 sur le Styx à destination du Pacifique. Il passe le détroit de Magellan et aperçoit au cap Gregory un campement de Patagons avant d'arriver à Punta Arenas où les vivres manquent. Il repart le 29 juillet pour visiter la baie de Saint-Nicolas où l'on fait monter à bord quelques indigènes à qui l'on offre des habits européens, du café et du tabac. Après treize jours d'une navigation délicate, le navire quitte le détroit puis explore les canaux des côtes patagonnes. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de chirurgien, il devient chirurgien de marine dès 1852, Victor de Rochas part le 24 juillet 1856 sur le Styx à destination du Pacifique. Il passe le détroit de Magellan et aperçoit au cap Gregory un campement de Patagons avant d'arriver à Punta Arenas où les vivres manquent. Il repart le 29 juillet pour visiter la baie de Saint-Nicolas où l'on fait monter à bord quelques indigènes à qui l'on offre des habits européens, du café et du tabac. Après treize jours d'une navigation délicate, le navire quitte le détroit puis explore les canaux des côtes patagonnes. 
 Rochas visite ensuite les Tuamotou et la Nouvelle-Calédonie et y étudie les peuples et le cannibalisme. Il découvre aussi en Nouvelle-Calédonie, le niaouli.
 Il fait partie du voyage lorsque le Styx est envoyé sauver des naufragés sur l'île Rossel. 
-Il devient par la suite, en 1860, médecin à Santiago de Cuba[4] où il se marie le 15 juin 1864, puis à Pau.
+Il devient par la suite, en 1860, médecin à Santiago de Cuba où il se marie le 15 juin 1864, puis à Pau.
 Décédé à Paris , il est inhumé à Bordeaux avec son épouse.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthropologie des races noires océaniennes, Revue algérienne et coloniale, novembre 1859 (Gazette médicale de Paris, 1860)
 Essai sur la topographie hygiénique et médicale de la Nouvelle-Calédonie, Paris, Rignoux, 1860
